--- a/mat_exceptuadas.xlsx
+++ b/mat_exceptuadas.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>Mat</t>
   </si>
@@ -333,6 +336,12 @@
   </si>
   <si>
     <t>Recepción Boeing 737-700 T-99</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>Fuerza Aérea Argentina - El Fokker F-28 TC-53</t>
   </si>
 </sst>
 </file>
@@ -736,11 +745,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1265,7 +1272,22 @@
         <v>102</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E37"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
@@ -1304,6 +1326,7 @@
     <hyperlink ref="D36" r:id="rId35"/>
     <hyperlink ref="D37" r:id="rId36"/>
     <hyperlink ref="D4" r:id="rId37" display="https://es.wikipedia.org/wiki/Transporte_a%C3%A9reo_de_jefes_de_Estado"/>
+    <hyperlink ref="D38" r:id="rId38" display="https://www.zona-militar.com/2021/08/07/fuerza-aerea-argentina-el-fokker-f-28-tc-53-volvio-a-volar/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
